--- a/RkkInfo/RkkInfo/bin/Debug/Отчёт_Вакансии.xlsx
+++ b/RkkInfo/RkkInfo/bin/Debug/Отчёт_Вакансии.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Вакансии</t>
+  </si>
   <si>
     <t>Наименование</t>
   </si>
@@ -23,13 +26,22 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>sadasd</t>
+    <t>Менеджер</t>
   </si>
   <si>
-    <t>14.05.2023</t>
+    <t>19.05.2023</t>
   </si>
   <si>
     <t>В процессе обработки</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>20.05.2023</t>
+  </si>
+  <si>
+    <t>Вакансия свободна</t>
   </si>
 </sst>
 </file>
@@ -37,8 +49,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -51,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +76,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -75,32 +102,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.8873051234654" customWidth="1"/>
+    <col min="2" max="2" width="10.5382548740932" customWidth="1"/>
+    <col min="3" max="3" width="21.1290261404855" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
